--- a/In sổ.xlsx
+++ b/In sổ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_MaintainDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5117073E-3116-45F6-A965-D7BAD24E7446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D163218-554E-474C-BF02-D9BBB1C97F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{98AB4AC4-B2EE-4EF1-BB57-4DB9EE3E1AB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98AB4AC4-B2EE-4EF1-BB57-4DB9EE3E1AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Ngày/tháng /năm</t>
   </si>
@@ -84,16 +84,13 @@
   </si>
   <si>
     <t>(8)</t>
-  </si>
-  <si>
-    <t>Mã thiết bị:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,12 +111,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -159,35 +150,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
@@ -201,17 +164,6 @@
       </left>
       <right/>
       <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
@@ -230,53 +182,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,311 +520,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE92144C-9C32-457E-A9DF-93DFBD6ECB25}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
-    <col min="7" max="8" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:8" ht="142.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="5"/>
+    <row r="3" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.22" top="0.31" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
